--- a/InputData/fuels/PEIIR/Pollutant Emissions Intensity Improvement Rate.xlsx
+++ b/InputData/fuels/PEIIR/Pollutant Emissions Intensity Improvement Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\fuels\PEIIR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\fuels\PEIIR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C5BDB8-164C-4260-8BDD-310BFE54C72D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF141244-6611-464B-A918-1489A292BDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21045" yWindow="1410" windowWidth="33360" windowHeight="21225" tabRatio="783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16110" yWindow="1005" windowWidth="31950" windowHeight="20490" tabRatio="783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="67">
   <si>
     <t>Source:</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>jet fuel</t>
-  </si>
-  <si>
-    <t>natural gas nonpeaker</t>
   </si>
   <si>
     <t>geothermal</t>
@@ -255,6 +252,12 @@
   </si>
   <si>
     <t>Improvement Rate (dimensionless)</t>
+  </si>
+  <si>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
   </si>
 </sst>
 </file>
@@ -711,22 +714,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -734,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -744,92 +747,92 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -862,7 +865,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>21</v>
@@ -883,16 +886,16 @@
         <v>23</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1346,7 +1349,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>21</v>
@@ -1370,13 +1373,13 @@
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1830,7 +1833,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -1854,13 +1857,13 @@
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2314,7 +2317,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -2338,13 +2341,13 @@
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2798,7 +2801,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -2822,13 +2825,13 @@
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3282,7 +3285,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -3306,13 +3309,13 @@
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3766,7 +3769,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -3790,13 +3793,13 @@
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4230,82 +4233,86 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="3" max="4" width="23" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="L1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="P1" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4357,8 +4364,11 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4410,8 +4420,11 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4463,8 +4476,11 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4516,8 +4532,11 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4569,8 +4588,11 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4622,8 +4644,11 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4675,8 +4700,11 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4728,8 +4756,11 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4781,8 +4812,11 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4834,8 +4868,11 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4887,8 +4924,11 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4938,6 +4978,9 @@
         <v>0</v>
       </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>0</v>
       </c>
     </row>
@@ -4971,7 +5014,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -4992,16 +5035,16 @@
         <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">

--- a/InputData/fuels/PEIIR/Pollutant Emissions Intensity Improvement Rate.xlsx
+++ b/InputData/fuels/PEIIR/Pollutant Emissions Intensity Improvement Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\fuels\PEIIR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\fuels\PEIIR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF141244-6611-464B-A918-1489A292BDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FC188C-FA4C-4C43-92BB-4E00CBEC999C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16110" yWindow="1005" windowWidth="31950" windowHeight="20490" tabRatio="783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="72">
   <si>
     <t>Source:</t>
   </si>
@@ -258,6 +258,21 @@
   </si>
   <si>
     <t>natural gas combined cycle</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
   </si>
 </sst>
 </file>
@@ -331,23 +346,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -382,9 +390,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -422,9 +430,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,26 +465,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -509,26 +500,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -736,7 +710,7 @@
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -863,38 +837,38 @@
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1347,38 +1321,38 @@
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1832,7 +1806,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1853,16 +1827,16 @@
       <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2316,37 +2290,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2800,37 +2774,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3284,13 +3258,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3299,22 +3273,22 @@
       <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3768,16 +3742,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -3789,16 +3763,16 @@
       <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4233,9 +4207,11 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4254,65 +4230,85 @@
     <col min="16" max="16" width="12.140625" customWidth="1"/>
     <col min="17" max="17" width="17.140625" customWidth="1"/>
     <col min="18" max="18" width="15.5703125" customWidth="1"/>
+    <col min="19" max="24" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" s="4"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4367,8 +4363,26 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4423,8 +4437,26 @@
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4479,8 +4511,26 @@
       <c r="R4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4535,8 +4585,26 @@
       <c r="R5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4591,8 +4659,26 @@
       <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4647,8 +4733,26 @@
       <c r="R7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4703,8 +4807,26 @@
       <c r="R8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4759,8 +4881,26 @@
       <c r="R9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4815,8 +4955,26 @@
       <c r="R10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4871,8 +5029,26 @@
       <c r="R11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4927,8 +5103,26 @@
       <c r="R12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4981,6 +5175,24 @@
         <v>0</v>
       </c>
       <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
         <v>0</v>
       </c>
     </row>
@@ -5013,7 +5225,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="2" t="s">

--- a/InputData/fuels/PEIIR/Pollutant Emissions Intensity Improvement Rate.xlsx
+++ b/InputData/fuels/PEIIR/Pollutant Emissions Intensity Improvement Rate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\fuels\PEIIR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FC188C-FA4C-4C43-92BB-4E00CBEC999C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E3BD0C-A423-4B33-9496-E16F34203A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="74">
   <si>
     <t>Source:</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
@@ -4210,7 +4216,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+      <selection activeCell="Y2" sqref="Y2:Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4233,7 +4239,7 @@
     <col min="19" max="24" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
@@ -4304,9 +4310,11 @@
         <v>71</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y1" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4381,6 +4389,9 @@
       <c r="X2">
         <v>0</v>
       </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -4455,6 +4466,9 @@
       <c r="X3">
         <v>0</v>
       </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -4529,6 +4543,9 @@
       <c r="X4">
         <v>0</v>
       </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4603,6 +4620,9 @@
       <c r="X5">
         <v>0</v>
       </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4677,6 +4697,9 @@
       <c r="X6">
         <v>0</v>
       </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -4751,6 +4774,9 @@
       <c r="X7">
         <v>0</v>
       </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -4825,6 +4851,9 @@
       <c r="X8">
         <v>0</v>
       </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -4899,6 +4928,9 @@
       <c r="X9">
         <v>0</v>
       </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -4973,6 +5005,9 @@
       <c r="X10">
         <v>0</v>
       </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -5047,6 +5082,9 @@
       <c r="X11">
         <v>0</v>
       </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -5121,6 +5159,9 @@
       <c r="X12">
         <v>0</v>
       </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -5193,6 +5234,9 @@
         <v>0</v>
       </c>
       <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
         <v>0</v>
       </c>
     </row>

--- a/InputData/fuels/PEIIR/Pollutant Emissions Intensity Improvement Rate.xlsx
+++ b/InputData/fuels/PEIIR/Pollutant Emissions Intensity Improvement Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\fuels\PEIIR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\fuels\PEIIR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E3BD0C-A423-4B33-9496-E16F34203A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB088B64-F7AE-4F98-B0F4-14E551481D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60840" yWindow="2385" windowWidth="24900" windowHeight="14490" tabRatio="783" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="76">
   <si>
     <t>Source:</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>hydrogen combined cycle</t>
+  </si>
+  <si>
+    <t>green hydrogen</t>
+  </si>
+  <si>
+    <t>low carbon hydrogen</t>
   </si>
 </sst>
 </file>
@@ -684,35 +690,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,97 +726,97 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -826,24 +832,26 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="9" width="15.26953125" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" customWidth="1"/>
+    <col min="11" max="13" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
@@ -877,8 +885,14 @@
       <c r="K1" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -912,8 +926,14 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -947,8 +967,14 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -982,8 +1008,14 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1017,8 +1049,14 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1052,8 +1090,14 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1087,8 +1131,14 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1122,8 +1172,14 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1157,8 +1213,14 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1192,8 +1254,14 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1227,8 +1295,14 @@
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1262,8 +1336,14 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1295,6 +1375,12 @@
         <v>0</v>
       </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>0</v>
       </c>
     </row>
@@ -1313,21 +1399,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>64</v>
       </c>
@@ -1362,7 +1448,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1397,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1432,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1467,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1502,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1537,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1572,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1607,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1642,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1677,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1712,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1747,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1797,21 +1883,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -1846,7 +1932,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1881,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1916,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1951,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1986,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2021,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2056,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2091,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2126,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2161,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2196,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2231,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2281,21 +2367,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -2330,7 +2416,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2365,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2400,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2435,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2470,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2505,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2540,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2575,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2610,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2645,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2680,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2715,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2765,21 +2851,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -2814,7 +2900,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2849,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2884,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2919,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2954,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2989,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3024,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3059,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3094,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3129,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3164,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3199,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3249,21 +3335,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -3298,7 +3384,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3333,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3368,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3403,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3438,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3473,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3508,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3543,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3578,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3613,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3648,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3683,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3733,21 +3819,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -3782,7 +3868,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3817,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3852,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3887,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3922,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3957,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3992,7 +4078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4027,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4062,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4097,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4132,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4167,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4219,27 +4305,27 @@
       <selection activeCell="Y2" sqref="Y2:Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" customWidth="1"/>
-    <col min="19" max="24" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.7265625" customWidth="1"/>
+    <col min="11" max="11" width="15.7265625" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" customWidth="1"/>
+    <col min="13" max="13" width="20.7265625" customWidth="1"/>
+    <col min="14" max="14" width="13.7265625" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1796875" customWidth="1"/>
+    <col min="17" max="17" width="17.1796875" customWidth="1"/>
+    <col min="18" max="18" width="15.54296875" customWidth="1"/>
+    <col min="19" max="24" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
@@ -4316,7 +4402,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4393,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4470,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4547,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4624,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4701,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4778,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4855,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4932,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5009,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5086,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5163,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -5255,20 +5341,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="9" width="24.7265625" customWidth="1"/>
+    <col min="10" max="10" width="22.81640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -5303,7 +5389,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -5338,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5373,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5408,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5443,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5478,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5513,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5548,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5583,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5618,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5653,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5688,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
